--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssln_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssln_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA955AE-B61E-4A4C-AB2A-E3E9D3B36C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C24EB0-85F1-4C58-85CA-E4E838A8DE61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,22 +1265,13 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H2:M2"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="1.3779527559055118" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="1.3779527559055118" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1472,7 +1463,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1518,19 +1522,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF743650-405A-4EB5-9BE5-79180E38FBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B642628-E0AC-4F61-AC13-56E3126AE48A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1549,18 +1541,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF743650-405A-4EB5-9BE5-79180E38FBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52AA9053-CA78-458B-BFEC-B0A103F9F68C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CFCEAE-5A31-4E8D-871E-0FEB90E546B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52AA9053-CA78-458B-BFEC-B0A103F9F68C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssln_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssln_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C24EB0-85F1-4C58-85CA-E4E838A8DE61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10582043-46F9-41A4-BEDD-F19CD4B32E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ssln_Beispielbefüllung" sheetId="2" r:id="rId1"/>
@@ -167,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -176,7 +176,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -189,12 +189,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -207,280 +262,130 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -488,153 +393,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -724,9 +584,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,9 +624,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -799,26 +659,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -851,26 +694,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1047,215 +873,214 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="7" style="28" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="28" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="28" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="28" customWidth="1"/>
-    <col min="15" max="15" width="39.42578125" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="28"/>
+    <col min="1" max="1" width="3.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="25" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="29"/>
+      <c r="O3" s="27"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="10" t="s">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="30"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="28"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="31"/>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1272,6 +1097,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1463,19 +1301,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1523,6 +1348,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52AA9053-CA78-458B-BFEC-B0A103F9F68C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF743650-405A-4EB5-9BE5-79180E38FBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B642628-E0AC-4F61-AC13-56E3126AE48A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1541,22 +1382,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF743650-405A-4EB5-9BE5-79180E38FBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52AA9053-CA78-458B-BFEC-B0A103F9F68C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CFCEAE-5A31-4E8D-871E-0FEB90E546B0}">
   <ds:schemaRefs>
